--- a/app/data/static/templates/constructor_schedule_department.xlsx
+++ b/app/data/static/templates/constructor_schedule_department.xlsx
@@ -145,399 +145,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:NN2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AL3" activeCellId="0" sqref="AL3"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="576" min="5" style="0" width="2.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="577" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="576" min="5" style="1" width="2.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="577" style="1" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="1"/>
-      <c r="BV1" s="1"/>
-      <c r="BW1" s="1"/>
-      <c r="BX1" s="1"/>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
-      <c r="CA1" s="1"/>
-      <c r="CB1" s="1"/>
-      <c r="CC1" s="1"/>
-      <c r="CD1" s="1"/>
-      <c r="CE1" s="1"/>
-      <c r="CF1" s="1"/>
-      <c r="CG1" s="1"/>
-      <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
-      <c r="CJ1" s="1"/>
-      <c r="CK1" s="1"/>
-      <c r="CL1" s="1"/>
-      <c r="CM1" s="1"/>
-      <c r="CN1" s="1"/>
-      <c r="CO1" s="1"/>
-      <c r="CP1" s="1"/>
-      <c r="CQ1" s="1"/>
-      <c r="CR1" s="1"/>
-      <c r="CS1" s="1"/>
-      <c r="CT1" s="1"/>
-      <c r="CU1" s="1"/>
-      <c r="CV1" s="1"/>
-      <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
-      <c r="CY1" s="1"/>
-      <c r="CZ1" s="1"/>
-      <c r="DA1" s="1"/>
-      <c r="DB1" s="1"/>
-      <c r="DC1" s="1"/>
-      <c r="DD1" s="1"/>
-      <c r="DE1" s="1"/>
-      <c r="DF1" s="1"/>
-      <c r="DG1" s="1"/>
-      <c r="DH1" s="1"/>
-      <c r="DI1" s="1"/>
-      <c r="DJ1" s="1"/>
-      <c r="DK1" s="1"/>
-      <c r="DL1" s="1"/>
-      <c r="DM1" s="1"/>
-      <c r="DN1" s="1"/>
-      <c r="DO1" s="1"/>
-      <c r="DP1" s="1"/>
-      <c r="DQ1" s="1"/>
-      <c r="DR1" s="1"/>
-      <c r="DS1" s="1"/>
-      <c r="DT1" s="1"/>
-      <c r="DU1" s="1"/>
-      <c r="DV1" s="1"/>
-      <c r="DW1" s="1"/>
-      <c r="DX1" s="1"/>
-      <c r="DY1" s="1"/>
-      <c r="DZ1" s="1"/>
-      <c r="EA1" s="1"/>
-      <c r="EB1" s="1"/>
-      <c r="EC1" s="1"/>
-      <c r="ED1" s="1"/>
-      <c r="EE1" s="1"/>
-      <c r="EF1" s="1"/>
-      <c r="EG1" s="1"/>
-      <c r="EH1" s="1"/>
-      <c r="EI1" s="1"/>
-      <c r="EJ1" s="1"/>
-      <c r="EK1" s="1"/>
-      <c r="EL1" s="1"/>
-      <c r="EM1" s="1"/>
-      <c r="EN1" s="1"/>
-      <c r="EO1" s="1"/>
-      <c r="EP1" s="1"/>
-      <c r="EQ1" s="1"/>
-      <c r="ER1" s="1"/>
-      <c r="ES1" s="1"/>
-      <c r="ET1" s="1"/>
-      <c r="EU1" s="1"/>
-      <c r="EV1" s="1"/>
-      <c r="EW1" s="1"/>
-      <c r="EX1" s="1"/>
-      <c r="EY1" s="1"/>
-      <c r="EZ1" s="1"/>
-      <c r="FA1" s="1"/>
-      <c r="FB1" s="1"/>
-      <c r="FC1" s="1"/>
-      <c r="FD1" s="1"/>
-      <c r="FE1" s="1"/>
-      <c r="FF1" s="1"/>
-      <c r="FG1" s="1"/>
-      <c r="FH1" s="1"/>
-      <c r="FI1" s="1"/>
-      <c r="FJ1" s="1"/>
-      <c r="FK1" s="1"/>
-      <c r="FL1" s="1"/>
-      <c r="FM1" s="1"/>
-      <c r="FN1" s="1"/>
-      <c r="FO1" s="1"/>
-      <c r="FP1" s="1"/>
-      <c r="FQ1" s="1"/>
-      <c r="FR1" s="1"/>
-      <c r="FS1" s="1"/>
-      <c r="FT1" s="1"/>
-      <c r="FU1" s="1"/>
-      <c r="FV1" s="1"/>
-      <c r="FW1" s="1"/>
-      <c r="FX1" s="1"/>
-      <c r="FY1" s="1"/>
-      <c r="FZ1" s="1"/>
-      <c r="GA1" s="1"/>
-      <c r="GB1" s="1"/>
-      <c r="GC1" s="1"/>
-      <c r="GD1" s="1"/>
-      <c r="GE1" s="1"/>
-      <c r="GF1" s="1"/>
-      <c r="GG1" s="1"/>
-      <c r="GH1" s="1"/>
-      <c r="GI1" s="1"/>
-      <c r="GJ1" s="1"/>
-      <c r="GK1" s="1"/>
-      <c r="GL1" s="1"/>
-      <c r="GM1" s="1"/>
-      <c r="GN1" s="1"/>
-      <c r="GO1" s="1"/>
-      <c r="GP1" s="1"/>
-      <c r="GQ1" s="1"/>
-      <c r="GR1" s="1"/>
-      <c r="GS1" s="1"/>
-      <c r="GT1" s="1"/>
-      <c r="GU1" s="1"/>
-      <c r="GV1" s="1"/>
-      <c r="GW1" s="1"/>
-      <c r="GX1" s="1"/>
-      <c r="GY1" s="1"/>
-      <c r="GZ1" s="1"/>
-      <c r="HA1" s="1"/>
-      <c r="HB1" s="1"/>
-      <c r="HC1" s="1"/>
-      <c r="HD1" s="1"/>
-      <c r="HE1" s="1"/>
-      <c r="HF1" s="1"/>
-      <c r="HG1" s="1"/>
-      <c r="HH1" s="1"/>
-      <c r="HI1" s="1"/>
-      <c r="HJ1" s="1"/>
-      <c r="HK1" s="1"/>
-      <c r="HL1" s="1"/>
-      <c r="HM1" s="1"/>
-      <c r="HN1" s="1"/>
-      <c r="HO1" s="1"/>
-      <c r="HP1" s="1"/>
-      <c r="HQ1" s="1"/>
-      <c r="HR1" s="1"/>
-      <c r="HS1" s="1"/>
-      <c r="HT1" s="1"/>
-      <c r="HU1" s="1"/>
-      <c r="HV1" s="1"/>
-      <c r="HW1" s="1"/>
-      <c r="HX1" s="1"/>
-      <c r="HY1" s="1"/>
-      <c r="HZ1" s="1"/>
-      <c r="IA1" s="1"/>
-      <c r="IB1" s="1"/>
-      <c r="IC1" s="1"/>
-      <c r="ID1" s="1"/>
-      <c r="IE1" s="1"/>
-      <c r="IF1" s="1"/>
-      <c r="IG1" s="1"/>
-      <c r="IH1" s="1"/>
-      <c r="II1" s="1"/>
-      <c r="IJ1" s="1"/>
-      <c r="IK1" s="1"/>
-      <c r="IL1" s="1"/>
-      <c r="IM1" s="1"/>
-      <c r="IN1" s="1"/>
-      <c r="IO1" s="1"/>
-      <c r="IP1" s="1"/>
-      <c r="IQ1" s="1"/>
-      <c r="IR1" s="1"/>
-      <c r="IS1" s="1"/>
-      <c r="IT1" s="1"/>
-      <c r="IU1" s="1"/>
-      <c r="IV1" s="1"/>
-      <c r="IW1" s="1"/>
-      <c r="IX1" s="1"/>
-      <c r="IY1" s="1"/>
-      <c r="IZ1" s="1"/>
-      <c r="JA1" s="1"/>
-      <c r="JB1" s="1"/>
-      <c r="JC1" s="1"/>
-      <c r="JD1" s="1"/>
-      <c r="JE1" s="1"/>
-      <c r="JF1" s="1"/>
-      <c r="JG1" s="1"/>
-      <c r="JH1" s="1"/>
-      <c r="JI1" s="1"/>
-      <c r="JJ1" s="1"/>
-      <c r="JK1" s="1"/>
-      <c r="JL1" s="1"/>
-      <c r="JM1" s="1"/>
-      <c r="JN1" s="1"/>
-      <c r="JO1" s="1"/>
-      <c r="JP1" s="1"/>
-      <c r="JQ1" s="1"/>
-      <c r="JR1" s="1"/>
-      <c r="JS1" s="1"/>
-      <c r="JT1" s="1"/>
-      <c r="JU1" s="1"/>
-      <c r="JV1" s="1"/>
-      <c r="JW1" s="1"/>
-      <c r="JX1" s="1"/>
-      <c r="JY1" s="1"/>
-      <c r="JZ1" s="1"/>
-      <c r="KA1" s="1"/>
-      <c r="KB1" s="1"/>
-      <c r="KC1" s="1"/>
-      <c r="KD1" s="1"/>
-      <c r="KE1" s="1"/>
-      <c r="KF1" s="1"/>
-      <c r="KG1" s="1"/>
-      <c r="KH1" s="1"/>
-      <c r="KI1" s="1"/>
-      <c r="KJ1" s="1"/>
-      <c r="KK1" s="1"/>
-      <c r="KL1" s="1"/>
-      <c r="KM1" s="1"/>
-      <c r="KN1" s="1"/>
-      <c r="KO1" s="1"/>
-      <c r="KP1" s="1"/>
-      <c r="KQ1" s="1"/>
-      <c r="KR1" s="1"/>
-      <c r="KS1" s="1"/>
-      <c r="KT1" s="1"/>
-      <c r="KU1" s="1"/>
-      <c r="KV1" s="1"/>
-      <c r="KW1" s="1"/>
-      <c r="KX1" s="1"/>
-      <c r="KY1" s="1"/>
-      <c r="KZ1" s="1"/>
-      <c r="LA1" s="1"/>
-      <c r="LB1" s="1"/>
-      <c r="LC1" s="1"/>
-      <c r="LD1" s="1"/>
-      <c r="LE1" s="1"/>
-      <c r="LF1" s="1"/>
-      <c r="LG1" s="1"/>
-      <c r="LH1" s="1"/>
-      <c r="LI1" s="1"/>
-      <c r="LJ1" s="1"/>
-      <c r="LK1" s="1"/>
-      <c r="LL1" s="1"/>
-      <c r="LM1" s="1"/>
-      <c r="LN1" s="1"/>
-      <c r="LO1" s="1"/>
-      <c r="LP1" s="1"/>
-      <c r="LQ1" s="1"/>
-      <c r="LR1" s="1"/>
-      <c r="LS1" s="1"/>
-      <c r="LT1" s="1"/>
-      <c r="LU1" s="1"/>
-      <c r="LV1" s="1"/>
-      <c r="LW1" s="1"/>
-      <c r="LX1" s="1"/>
-      <c r="LY1" s="1"/>
-      <c r="LZ1" s="1"/>
-      <c r="MA1" s="1"/>
-      <c r="MB1" s="1"/>
-      <c r="MC1" s="1"/>
-      <c r="MD1" s="1"/>
-      <c r="ME1" s="1"/>
-      <c r="MF1" s="1"/>
-      <c r="MG1" s="1"/>
-      <c r="MH1" s="1"/>
-      <c r="MI1" s="1"/>
-      <c r="MJ1" s="1"/>
-      <c r="MK1" s="1"/>
-      <c r="ML1" s="1"/>
-      <c r="MM1" s="1"/>
-      <c r="MN1" s="1"/>
-      <c r="MO1" s="1"/>
-      <c r="MP1" s="1"/>
-      <c r="MQ1" s="1"/>
-      <c r="MR1" s="1"/>
-      <c r="MS1" s="1"/>
-      <c r="MT1" s="1"/>
-      <c r="MU1" s="1"/>
-      <c r="MV1" s="1"/>
-      <c r="MW1" s="1"/>
-      <c r="MX1" s="1"/>
-      <c r="MY1" s="1"/>
-      <c r="MZ1" s="1"/>
-      <c r="NA1" s="1"/>
-      <c r="NB1" s="1"/>
-      <c r="NC1" s="1"/>
-      <c r="ND1" s="1"/>
-      <c r="NE1" s="1"/>
-      <c r="NF1" s="1"/>
-      <c r="NG1" s="1"/>
-      <c r="NH1" s="1"/>
-      <c r="NI1" s="1"/>
-      <c r="NJ1" s="1"/>
-      <c r="NK1" s="1"/>
-      <c r="NL1" s="1"/>
-      <c r="NM1" s="1"/>
-      <c r="NN1" s="1"/>
-    </row>
+    <row r="1" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
